--- a/biology/Médecine/Félix_Martí_Ibáñez/Félix_Martí_Ibáñez.xlsx
+++ b/biology/Médecine/Félix_Martí_Ibáñez/Félix_Martí_Ibáñez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Mart%C3%AD_Ib%C3%A1%C3%B1ez</t>
+          <t>Félix_Martí_Ibáñez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix Martí Ibañez (1911-1972), né en Espagne, est un médecin et anarchiste espagnol. Il est titulaire d’un doctorat de médecine de l’université de Madrid ; il pratique d’abord la psychiatrie. Militant anarchiste, il défend la médecine sociale et contribue à plusieurs magazines littéraires, médicaux et libertaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Mart%C3%AD_Ib%C3%A1%C3%B1ez</t>
+          <t>Félix_Martí_Ibáñez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix Martí Ibañez dirige notamment la revue Consultorio psiquico-sexual pendant la guerre civile, revue populaire de sexologie dont le succès est éclatant.
 Il est membre de la Confederación Nacional del Trabajo (CNT). Son engagement le porte à réfléchir sur une hygiène sociale dirigée vers le monde ouvrier et une pratique anarchiste de la médecine et de l’éducation à la santé.
-Il contribue, jusqu'en 1937, avec un autre médecin, Isaac Puente, au magazine Estudios, revue éclectique, naturiste et libertaire dont les principaux thèmes sont : le nudisme, la médecine intégrale, l'amour libre et l'éducation sexuelle, l'hygiène et l'alimentation naturelle, la pédagogie rationnelle, l'art, etc. Elle aura une influence décisive sur la classe ouvrière espagnole en contribuant à faire évoluer radicalement les mentalités[2].
+Il contribue, jusqu'en 1937, avec un autre médecin, Isaac Puente, au magazine Estudios, revue éclectique, naturiste et libertaire dont les principaux thèmes sont : le nudisme, la médecine intégrale, l'amour libre et l'éducation sexuelle, l'hygiène et l'alimentation naturelle, la pédagogie rationnelle, l'art, etc. Elle aura une influence décisive sur la classe ouvrière espagnole en contribuant à faire évoluer radicalement les mentalités.
 Durant le Front populaire et la guerre civile, il est nommé sous-secrétaire d’État à la Santé et à la Sécurité sociale du gouvernement catalan. Il représente l’Espagne au Congrès mondial pour la paix.
 Pendant les mois de la révolution espagnole, il est l’auteur de la première législation sur l’avortement à la demande de la militante anarchiste Federica Montseny, ministre de la Santé et de la Sécurité sociale.
 En 1939, après la défaite, il quitte l’Espagne pour se réfugier en France, puis à New York. Il devient citoyen américain.
